--- a/data/combined_PPG_averages.xlsx
+++ b/data/combined_PPG_averages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>average_PPG</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>overall_average_PPG</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +469,9 @@
       <c r="C2" t="n">
         <v>0.05932920841689843</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.06438041414834698</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,6 +487,7 @@
       <c r="C3" t="n">
         <v>0.06943161987979554</v>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,6 +503,9 @@
       <c r="C4" t="n">
         <v>0.05808973558985457</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.0581836825367556</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -509,6 +521,7 @@
       <c r="C5" t="n">
         <v>0.05827762948365662</v>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -524,6 +537,9 @@
       <c r="C6" t="n">
         <v>0.05724620858837186</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.06002551689213351</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +555,7 @@
       <c r="C7" t="n">
         <v>0.06280482519589516</v>
       </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -554,6 +571,9 @@
       <c r="C8" t="n">
         <v>0.0599097745567973</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.06628641404628324</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -569,6 +589,7 @@
       <c r="C9" t="n">
         <v>0.07266305353576917</v>
       </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -584,6 +605,9 @@
       <c r="C10" t="n">
         <v>0.07071848895994327</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.06875772807453726</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -599,6 +623,7 @@
       <c r="C11" t="n">
         <v>0.06679696718913125</v>
       </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -614,6 +639,9 @@
       <c r="C12" t="n">
         <v>0.06536752471535262</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.06430135836715234</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -629,6 +657,7 @@
       <c r="C13" t="n">
         <v>0.06323519201895206</v>
       </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -644,6 +673,9 @@
       <c r="C14" t="n">
         <v>0.06548062376969861</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.06302585840805201</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -659,6 +691,7 @@
       <c r="C15" t="n">
         <v>0.06057109304640542</v>
       </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -674,6 +707,9 @@
       <c r="C16" t="n">
         <v>0.06128905581511608</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.0584891692996081</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -689,6 +725,7 @@
       <c r="C17" t="n">
         <v>0.0556892827841001</v>
       </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -704,6 +741,9 @@
       <c r="C18" t="n">
         <v>0.06345874101859021</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.06379831073302487</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -719,6 +759,7 @@
       <c r="C19" t="n">
         <v>0.06413788044745954</v>
       </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -734,6 +775,9 @@
       <c r="C20" t="n">
         <v>0.05999360267255663</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.05980613249226264</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -749,6 +793,7 @@
       <c r="C21" t="n">
         <v>0.05961866231196865</v>
       </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -764,6 +809,9 @@
       <c r="C22" t="n">
         <v>0.0622915307838836</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.06055435834533072</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -779,6 +827,7 @@
       <c r="C23" t="n">
         <v>0.05881718590677783</v>
       </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -794,6 +843,9 @@
       <c r="C24" t="n">
         <v>0.06366320283285806</v>
       </c>
+      <c r="D24" t="n">
+        <v>0.063679763434227</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -809,6 +861,7 @@
       <c r="C25" t="n">
         <v>0.06369632403559594</v>
       </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -824,6 +877,9 @@
       <c r="C26" t="n">
         <v>0.05965409949402669</v>
       </c>
+      <c r="D26" t="n">
+        <v>0.06054745032040698</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -839,6 +895,7 @@
       <c r="C27" t="n">
         <v>0.06144080114678727</v>
       </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -854,6 +911,9 @@
       <c r="C28" t="n">
         <v>0.06266496871168624</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.06165118635893378</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -869,6 +929,7 @@
       <c r="C29" t="n">
         <v>0.06063740400618133</v>
       </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -884,6 +945,9 @@
       <c r="C30" t="n">
         <v>0.05579613871621104</v>
       </c>
+      <c r="D30" t="n">
+        <v>0.05478490635073516</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -899,6 +963,7 @@
       <c r="C31" t="n">
         <v>0.05377367398525928</v>
       </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -914,6 +979,9 @@
       <c r="C32" t="n">
         <v>0.05756874776435658</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.05426884268908958</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -929,6 +997,7 @@
       <c r="C33" t="n">
         <v>0.05096893761382258</v>
       </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -944,6 +1013,9 @@
       <c r="C34" t="n">
         <v>0.05627600241420491</v>
       </c>
+      <c r="D34" t="n">
+        <v>0.05792277797034705</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -959,6 +1031,7 @@
       <c r="C35" t="n">
         <v>0.05956955352648919</v>
       </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -974,6 +1047,9 @@
       <c r="C36" t="n">
         <v>0.05478190902197386</v>
       </c>
+      <c r="D36" t="n">
+        <v>0.05507836150925293</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -989,6 +1065,7 @@
       <c r="C37" t="n">
         <v>0.055374813996532</v>
       </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1004,6 +1081,9 @@
       <c r="C38" t="n">
         <v>0.05808037415592434</v>
       </c>
+      <c r="D38" t="n">
+        <v>0.05905601898059792</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1019,6 +1099,7 @@
       <c r="C39" t="n">
         <v>0.06003166380527149</v>
       </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1034,6 +1115,9 @@
       <c r="C40" t="n">
         <v>0.05575002512470576</v>
       </c>
+      <c r="D40" t="n">
+        <v>0.05713673133216039</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1049,6 +1133,7 @@
       <c r="C41" t="n">
         <v>0.05852343753961502</v>
       </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1064,6 +1149,9 @@
       <c r="C42" t="n">
         <v>0.06004935421894574</v>
       </c>
+      <c r="D42" t="n">
+        <v>0.06920004049342308</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1079,6 +1167,7 @@
       <c r="C43" t="n">
         <v>0.07835072676790043</v>
       </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1094,6 +1183,9 @@
       <c r="C44" t="n">
         <v>0.05678183227215568</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.05527759544527684</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1109,6 +1201,7 @@
       <c r="C45" t="n">
         <v>0.05377335861839799</v>
       </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1124,6 +1217,9 @@
       <c r="C46" t="n">
         <v>0.0589346602928226</v>
       </c>
+      <c r="D46" t="n">
+        <v>0.0606642505242104</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1139,6 +1235,7 @@
       <c r="C47" t="n">
         <v>0.06239384075559821</v>
       </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1154,6 +1251,9 @@
       <c r="C48" t="n">
         <v>0.0543335039655958</v>
       </c>
+      <c r="D48" t="n">
+        <v>0.05889299413730181</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1169,6 +1269,7 @@
       <c r="C49" t="n">
         <v>0.06345248430900781</v>
       </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1184,6 +1285,9 @@
       <c r="C50" t="n">
         <v>0.05782902486645983</v>
       </c>
+      <c r="D50" t="n">
+        <v>0.05902267203788776</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1199,6 +1303,7 @@
       <c r="C51" t="n">
         <v>0.06021631920931569</v>
       </c>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1214,6 +1319,9 @@
       <c r="C52" t="n">
         <v>0.0475736939456345</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.05534091158051856</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1229,6 +1337,7 @@
       <c r="C53" t="n">
         <v>0.06310812921540263</v>
       </c>
+      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1244,6 +1353,9 @@
       <c r="C54" t="n">
         <v>0.05727736211591724</v>
       </c>
+      <c r="D54" t="n">
+        <v>0.06216307699920949</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1259,6 +1371,7 @@
       <c r="C55" t="n">
         <v>0.06704879188250173</v>
       </c>
+      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1274,6 +1387,9 @@
       <c r="C56" t="n">
         <v>0.06348628373118945</v>
       </c>
+      <c r="D56" t="n">
+        <v>0.06034274103609055</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1289,6 +1405,7 @@
       <c r="C57" t="n">
         <v>0.05719919834099164</v>
       </c>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1304,6 +1421,9 @@
       <c r="C58" t="n">
         <v>0.06302270241396926</v>
       </c>
+      <c r="D58" t="n">
+        <v>0.05699904189252614</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1319,6 +1439,7 @@
       <c r="C59" t="n">
         <v>0.05097538137108301</v>
       </c>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1334,6 +1455,9 @@
       <c r="C60" t="n">
         <v>0.05451553755178931</v>
       </c>
+      <c r="D60" t="n">
+        <v>0.05547838133512556</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1349,6 +1473,7 @@
       <c r="C61" t="n">
         <v>0.05644122511846181</v>
       </c>
+      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1364,6 +1489,9 @@
       <c r="C62" t="n">
         <v>0.05827293039993747</v>
       </c>
+      <c r="D62" t="n">
+        <v>0.05773710894629469</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1379,6 +1507,7 @@
       <c r="C63" t="n">
         <v>0.05720128749265192</v>
       </c>
+      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1394,6 +1523,9 @@
       <c r="C64" t="n">
         <v>0.0656710845109349</v>
       </c>
+      <c r="D64" t="n">
+        <v>0.06413861377487273</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1409,6 +1541,7 @@
       <c r="C65" t="n">
         <v>0.06260614303881055</v>
       </c>
+      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1424,6 +1557,9 @@
       <c r="C66" t="n">
         <v>0.05953867652430711</v>
       </c>
+      <c r="D66" t="n">
+        <v>0.06275466218646478</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1439,6 +1575,7 @@
       <c r="C67" t="n">
         <v>0.06597064784862243</v>
       </c>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1454,6 +1591,9 @@
       <c r="C68" t="n">
         <v>0.06103873771118513</v>
       </c>
+      <c r="D68" t="n">
+        <v>0.06095245008664489</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1469,6 +1609,7 @@
       <c r="C69" t="n">
         <v>0.06086616246210465</v>
       </c>
+      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1484,6 +1625,9 @@
       <c r="C70" t="n">
         <v>0.06229917120249499</v>
       </c>
+      <c r="D70" t="n">
+        <v>0.05803059153329816</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1499,6 +1643,7 @@
       <c r="C71" t="n">
         <v>0.05376201186410132</v>
       </c>
+      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1514,6 +1659,9 @@
       <c r="C72" t="n">
         <v>0.06319340370869547</v>
       </c>
+      <c r="D72" t="n">
+        <v>0.0609763148712909</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1529,6 +1677,7 @@
       <c r="C73" t="n">
         <v>0.05875922603388634</v>
       </c>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1544,6 +1693,9 @@
       <c r="C74" t="n">
         <v>0.05977564972831939</v>
       </c>
+      <c r="D74" t="n">
+        <v>0.05898525346435576</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1559,6 +1711,7 @@
       <c r="C75" t="n">
         <v>0.05819485720039213</v>
       </c>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1574,6 +1727,9 @@
       <c r="C76" t="n">
         <v>2346.454103713397</v>
       </c>
+      <c r="D76" t="n">
+        <v>2343.722986439293</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1589,6 +1745,7 @@
       <c r="C77" t="n">
         <v>2340.991869165188</v>
       </c>
+      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1604,6 +1761,9 @@
       <c r="C78" t="n">
         <v>2096.427310239958</v>
       </c>
+      <c r="D78" t="n">
+        <v>2103.472214151893</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1619,6 +1779,7 @@
       <c r="C79" t="n">
         <v>2110.517118063828</v>
       </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1634,6 +1795,9 @@
       <c r="C80" t="n">
         <v>2073.378660055608</v>
       </c>
+      <c r="D80" t="n">
+        <v>2070.942547238756</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1649,6 +1813,7 @@
       <c r="C81" t="n">
         <v>2068.506434421903</v>
       </c>
+      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1664,6 +1829,9 @@
       <c r="C82" t="n">
         <v>2192.29992510132</v>
       </c>
+      <c r="D82" t="n">
+        <v>2195.879169152323</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1679,6 +1847,7 @@
       <c r="C83" t="n">
         <v>2199.458413203327</v>
       </c>
+      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1694,6 +1863,9 @@
       <c r="C84" t="n">
         <v>0.06462530167225625</v>
       </c>
+      <c r="D84" t="n">
+        <v>0.06644329227031059</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1709,6 +1881,7 @@
       <c r="C85" t="n">
         <v>0.06826128286836494</v>
       </c>
+      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1724,6 +1897,9 @@
       <c r="C86" t="n">
         <v>0.06255384429730081</v>
       </c>
+      <c r="D86" t="n">
+        <v>0.06281575455017907</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1739,6 +1915,7 @@
       <c r="C87" t="n">
         <v>0.06307766480305735</v>
       </c>
+      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1754,6 +1931,9 @@
       <c r="C88" t="n">
         <v>0.05975389488975975</v>
       </c>
+      <c r="D88" t="n">
+        <v>0.05844093543000836</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1769,6 +1949,7 @@
       <c r="C89" t="n">
         <v>0.05712797597025696</v>
       </c>
+      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1784,6 +1965,9 @@
       <c r="C90" t="n">
         <v>0.06604826188586681</v>
       </c>
+      <c r="D90" t="n">
+        <v>0.06574502731203533</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1799,6 +1983,7 @@
       <c r="C91" t="n">
         <v>0.06544179273820386</v>
       </c>
+      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1814,6 +1999,9 @@
       <c r="C92" t="n">
         <v>0.06325051357874101</v>
       </c>
+      <c r="D92" t="n">
+        <v>0.0646696260798505</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1829,6 +2017,7 @@
       <c r="C93" t="n">
         <v>0.06608873858095998</v>
       </c>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1844,6 +2033,9 @@
       <c r="C94" t="n">
         <v>0.06287663551892267</v>
       </c>
+      <c r="D94" t="n">
+        <v>0.06434827572830604</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1859,6 +2051,7 @@
       <c r="C95" t="n">
         <v>0.06581991593768942</v>
       </c>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1874,6 +2067,9 @@
       <c r="C96" t="n">
         <v>0.05948412027868019</v>
       </c>
+      <c r="D96" t="n">
+        <v>0.06052957155963473</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1889,6 +2085,7 @@
       <c r="C97" t="n">
         <v>0.06157502284058926</v>
       </c>
+      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1904,6 +2101,9 @@
       <c r="C98" t="n">
         <v>0.05717834704091431</v>
       </c>
+      <c r="D98" t="n">
+        <v>0.06403794777766843</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1919,6 +2119,7 @@
       <c r="C99" t="n">
         <v>0.07089754851442254</v>
       </c>
+      <c r="D99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
